--- a/biology/Botanique/Pulicaria_dysenterica/Pulicaria_dysenterica.xlsx
+++ b/biology/Botanique/Pulicaria_dysenterica/Pulicaria_dysenterica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pulicaire dysentérique
 Pulicaria dysenterica, la Pulicaire dysentérique, est une espèce de plantes à fleurs de la famille des Asteraceae.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Inula dysenterica L. (basionyme)
 Aster dysentericus (L.) Scop.
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs sont groupées en capitules de couleur jaune et s'épanouissent de juillet à septembre.
 Les feuilles sont alternes, blanchâtres, pubescentes, ondulées, embrassantes avec deux oreillettes à la base. L'involucre possède des bractées linéaires.
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Prairies humides ou marécageuses, fossés.
 </t>
@@ -608,7 +626,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe médiane et méridionale. Commun sur toute la France (plus rare dans le sud).
 </t>
